--- a/src/assets/mass-template.xlsx
+++ b/src/assets/mass-template.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SKU</t>
   </si>
   <si>
     <t>Sales Price</t>
-  </si>
-  <si>
-    <t>Condition</t>
   </si>
 </sst>
 </file>
@@ -350,26 +348,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="A2:E5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
